--- a/foo.xlsx
+++ b/foo.xlsx
@@ -505,10 +505,10 @@
     <t xml:space="preserve">0;1;2;3;4;5;6;7</t>
   </si>
   <si>
-    <t xml:space="preserve">identified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing POV</t>
+    <t xml:space="preserve">Quant. by direct id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing POV</t>
   </si>
   <si>
     <t xml:space="preserve">AAADAISDIEIK</t>
@@ -556,7 +556,7 @@
     <t xml:space="preserve">14;15;16;17;18</t>
   </si>
   <si>
-    <t xml:space="preserve">recovered</t>
+    <t xml:space="preserve">Quant. by recovery</t>
   </si>
   <si>
     <t xml:space="preserve">AAAEEQAKR</t>
@@ -583,7 +583,7 @@
     <t xml:space="preserve">19</t>
   </si>
   <si>
-    <t xml:space="preserve">missing MEC</t>
+    <t xml:space="preserve">Missing MEC</t>
   </si>
   <si>
     <t xml:space="preserve">AAAEGVANIHIDEATGEMVSK</t>
@@ -767,7 +767,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,22 +776,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF6178D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
+        <fgColor rgb="FFB9C4F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFADD8E6"/>
+        <fgColor rgb="FFE5A947"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFF1CA8A"/>
       </patternFill>
     </fill>
     <fill>
@@ -802,6 +802,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF377EB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -817,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -825,6 +830,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,7 +1395,7 @@
       <c r="B2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1400,7 +1406,7 @@
       <c r="B3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1411,7 +1417,7 @@
       <c r="B4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1422,7 +1428,7 @@
       <c r="B5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1433,7 +1439,7 @@
       <c r="B6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1444,7 +1450,7 @@
       <c r="B7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="7" t="n">
         <v>6</v>
       </c>
     </row>

--- a/foo.xlsx
+++ b/foo.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">DAPAR_Version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32.1</t>
+    <t xml:space="preserve">1.32.3</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
